--- a/data/Negociado_de_Policia/npprDS_relacion.xlsx
+++ b/data/Negociado_de_Policia/npprDS_relacion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Documents\ViolenciaGeneroPR\data\Negociado_de_Policia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6493C7D6-E11B-4354-99A4-21F18DE3B886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="5592" yWindow="1896" windowWidth="17280" windowHeight="9420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -18,6 +19,7 @@
     <sheet name="2022" sheetId="4" r:id="rId4"/>
     <sheet name="2023" sheetId="5" r:id="rId5"/>
     <sheet name="2024" sheetId="6" r:id="rId6"/>
+    <sheet name="2025" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
   <si>
     <t>Familiar</t>
   </si>
@@ -103,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +148,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,18 +428,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -448,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -459,7 +461,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -470,7 +472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -481,7 +483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -492,7 +494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -503,7 +505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -514,7 +516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -525,7 +527,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -536,7 +538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -547,7 +549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -558,7 +560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -569,7 +571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -580,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -598,18 +600,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -620,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -631,7 +633,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -642,7 +644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -653,7 +655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -664,7 +666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -675,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -686,7 +688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -697,7 +699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -708,7 +710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -719,7 +721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -730,7 +732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -741,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -752,7 +754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -770,18 +772,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -792,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -803,7 +805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -814,7 +816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,7 +827,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,7 +838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,7 +860,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -869,7 +871,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -880,7 +882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -891,7 +893,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -902,7 +904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -913,7 +915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -924,7 +926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -942,18 +944,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -964,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -975,7 +977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -986,7 +988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -997,7 +999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1032,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1114,18 +1116,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1136,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1213,7 +1215,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,7 +1226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1248,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1268,7 +1270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1286,18 +1288,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1308,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1429,7 +1433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,4 +1459,176 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0D5D1A-29E0-49FC-8117-0A06E294C337}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>132</v>
+      </c>
+      <c r="C2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>122</v>
+      </c>
+      <c r="C8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>